--- a/CDX Members.xlsx
+++ b/CDX Members.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\55A. HY Basis Tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\53A. HY Bonds Basis Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3586D508-DEE3-4840-AC74-70C06707701B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2409F-C54B-44A9-9CD9-CF0BFC4C5436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HY" sheetId="1" r:id="rId1"/>
@@ -10711,19 +10711,19 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3505182686</v>
+        <v>#N/A Requesting Data...3224596232</v>
         <stp/>
         <stp>BDP|15868875219234957267</stp>
         <tr r="I7" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1881087560</v>
+        <v>#N/A Requesting Data...3967052159</v>
         <stp/>
         <stp>BDP|15018666094972926243</stp>
         <tr r="J4" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2830663456</v>
+        <v>#N/A Requesting Data...2021218251</v>
         <stp/>
         <stp>BDP|12093825864201438712</stp>
         <tr r="G15" s="8"/>
@@ -10735,49 +10735,49 @@
         <tr r="C3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1721086454</v>
+        <v>#N/A Requesting Data...3552718625</v>
         <stp/>
         <stp>BDP|18019588241156299421</stp>
         <tr r="J12" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2950048335</v>
         <stp/>
         <stp>BDP|13595556438567939997</stp>
         <tr r="E3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4187992220</v>
+        <v>#N/A Requesting Data...1482341500</v>
         <stp/>
         <stp>BDP|10385845307770099316</stp>
         <tr r="G5" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3727743732</v>
+        <v>#N/A Requesting Data...1211689982</v>
         <stp/>
         <stp>BDP|13668119252534054878</stp>
         <tr r="G20" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2110384992</v>
+        <v>#N/A Requesting Data...2499591710</v>
         <stp/>
         <stp>BDP|10203171026119240158</stp>
         <tr r="I24" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3773488257</v>
+        <v>#N/A Requesting Data...2003923389</v>
         <stp/>
         <stp>BDP|15980439194630307064</stp>
         <tr r="I17" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3623381977</v>
+        <v>#N/A Requesting Data...2757404675</v>
         <stp/>
         <stp>BDP|16852698281975204426</stp>
         <tr r="J18" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2201493827</v>
+        <v>#N/A Requesting Data...3036872677</v>
         <stp/>
         <stp>BDP|11390123986766097752</stp>
         <tr r="J5" s="8"/>
@@ -10789,19 +10789,19 @@
         <tr r="H3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2938003849</v>
+        <v>#N/A Requesting Data...2066766011</v>
         <stp/>
         <stp>BDP|17523889694000745847</stp>
         <tr r="I28" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1110559653</v>
         <stp/>
         <stp>BDP|10580156273861558962</stp>
         <tr r="E2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1705189020</v>
+        <v>#N/A Requesting Data...2697928723</v>
         <stp/>
         <stp>BDP|11620663475878300634</stp>
         <tr r="I15" s="8"/>
@@ -10813,49 +10813,49 @@
         <tr r="A2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3271740890</v>
+        <v>#N/A Requesting Data...2165894557</v>
         <stp/>
         <stp>BDP|15919234014231006850</stp>
         <tr r="I23" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4125877684</v>
+        <v>#N/A Requesting Data...4055939684</v>
         <stp/>
         <stp>BDP|14265750128596999883</stp>
         <tr r="I12" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2482066972</v>
+        <v>#N/A Requesting Data...3456377974</v>
         <stp/>
         <stp>BDP|18269655536900325183</stp>
         <tr r="I13" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4230335529</v>
+        <v>#N/A Requesting Data...1928498817</v>
         <stp/>
         <stp>BDP|12244212883950532451</stp>
         <tr r="I29" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2020611209</v>
+        <v>#N/A Requesting Data...1162905433</v>
         <stp/>
         <stp>BDP|13469240793931682529</stp>
         <tr r="G26" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1908925786</v>
+        <v>#N/A Requesting Data...2000395869</v>
         <stp/>
         <stp>BDP|16255570385013952513</stp>
         <tr r="J15" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3491626510</v>
+        <v>#N/A Requesting Data...3886361479</v>
         <stp/>
         <stp>BDP|16890903223346390667</stp>
         <tr r="J20" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3681829467</v>
+        <v>#N/A Requesting Data...1651619236</v>
         <stp/>
         <stp>BDP|10895826999094679859</stp>
         <tr r="I6" s="8"/>
@@ -10867,43 +10867,43 @@
         <tr r="G4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4114719757</v>
+        <v>#N/A Requesting Data...1070399638</v>
         <stp/>
         <stp>BDP|13957017108978637658</stp>
         <tr r="G25" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1880794274</v>
+        <v>#N/A Requesting Data...4285212094</v>
         <stp/>
         <stp>BDP|12539654984540887189</stp>
         <tr r="G28" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2331583439</v>
+        <v>#N/A Requesting Data...3693220039</v>
         <stp/>
         <stp>BDP|11312784690314957656</stp>
         <tr r="I14" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4039288239</v>
+        <v>#N/A Requesting Data...2359046864</v>
         <stp/>
         <stp>BDP|11034332056892590786</stp>
         <tr r="I31" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3323659833</v>
+        <v>#N/A Requesting Data...1394905941</v>
         <stp/>
         <stp>BDP|12043837516860470894</stp>
         <tr r="J3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3718620679</v>
+        <v>#N/A Requesting Data...3367356928</v>
         <stp/>
         <stp>BDP|16489047952042539239</stp>
         <tr r="J11" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2905809642</v>
+        <v>#N/A Requesting Data...2936337692</v>
         <stp/>
         <stp>BDP|14991175821380117755</stp>
         <tr r="I10" s="8"/>
@@ -10915,13 +10915,13 @@
         <tr r="A3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2102383160</v>
+        <v>#N/A Requesting Data...1932065645</v>
         <stp/>
         <stp>BDP|10993321401883479108</stp>
         <tr r="G7" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2372230241</v>
+        <v>#N/A Requesting Data...1592523262</v>
         <stp/>
         <stp>BDP|15199222870342330323</stp>
         <tr r="G4" s="8"/>
@@ -10933,43 +10933,43 @@
         <tr r="C2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2219838661</v>
+        <v>#N/A Requesting Data...2827058562</v>
         <stp/>
         <stp>BDP|13420796324114233427</stp>
         <tr r="G11" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4157395271</v>
+        <v>#N/A Requesting Data...3639241659</v>
         <stp/>
         <stp>BDP|14776336908624165567</stp>
         <tr r="G24" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3867178159</v>
+        <v>#N/A Requesting Data...1748749388</v>
         <stp/>
         <stp>BDP|14824798420917119037</stp>
         <tr r="J30" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4152294358</v>
+        <v>#N/A Requesting Data...3809179334</v>
         <stp/>
         <stp>BDP|16507353971056478228</stp>
         <tr r="J23" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3565443609</v>
+        <v>#N/A Requesting Data...3513014118</v>
         <stp/>
         <stp>BDP|16970067643375265053</stp>
         <tr r="J9" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3141393314</v>
+        <v>#N/A Requesting Data...1608808368</v>
         <stp/>
         <stp>BDP|15851198952551805754</stp>
         <tr r="I20" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1995875820</v>
+        <v>#N/A Requesting Data...2233392922</v>
         <stp/>
         <stp>BDP|10331412320724987670</stp>
         <tr r="G13" s="8"/>
@@ -10983,97 +10983,97 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1870074042</v>
+        <v>#N/A Requesting Data...2297373585</v>
         <stp/>
         <stp>BDP|8734761769193459669</stp>
         <tr r="G22" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4002126727</v>
+        <v>#N/A Requesting Data...3758084461</v>
         <stp/>
         <stp>BDP|4448732424498824515</stp>
         <tr r="G19" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3652616596</v>
+        <v>#N/A Requesting Data...1874560092</v>
         <stp/>
         <stp>BDP|9766689735930479014</stp>
         <tr r="I22" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3619881193</v>
+        <v>#N/A Requesting Data...4056853829</v>
         <stp/>
         <stp>BDP|6459957934994386405</stp>
         <tr r="I25" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3658838653</v>
+        <v>#N/A Requesting Data...3244269054</v>
         <stp/>
         <stp>BDP|3392884492878048769</stp>
         <tr r="I2" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2670731179</v>
+        <v>#N/A Requesting Data...1151001281</v>
         <stp/>
         <stp>BDP|9513984860828976376</stp>
         <tr r="G30" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1917867025</v>
+        <v>#N/A Requesting Data...3301545952</v>
         <stp/>
         <stp>BDP|3432999741184869736</stp>
         <tr r="J17" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3734693455</v>
+        <v>#N/A Requesting Data...1511320266</v>
         <stp/>
         <stp>BDP|6146065898240057101</stp>
         <tr r="J14" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1872982750</v>
+        <v>#N/A Requesting Data...4226404593</v>
         <stp/>
         <stp>BDP|5292969360293952713</stp>
         <tr r="G9" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2626874815</v>
+        <v>#N/A Requesting Data...1901467067</v>
         <stp/>
         <stp>BDP|8165638547612922763</stp>
         <tr r="I4" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4138294046</v>
+        <v>#N/A Requesting Data...1350258877</v>
         <stp/>
         <stp>BDP|6430686398574715285</stp>
         <tr r="I21" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3523840782</v>
+        <v>#N/A Requesting Data...1653481012</v>
         <stp/>
         <stp>BDP|4683081115239192393</stp>
         <tr r="I30" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4251040104</v>
+        <v>#N/A Requesting Data...2365501225</v>
         <stp/>
         <stp>BDP|8120730541310208475</stp>
         <tr r="J10" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3089703261</v>
+        <v>#N/A Requesting Data...1887631603</v>
         <stp/>
         <stp>BDP|9526001558271684554</stp>
         <tr r="I5" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3167670360</v>
+        <v>#N/A Requesting Data...3174006204</v>
         <stp/>
         <stp>BDP|7706832174663963373</stp>
         <tr r="I11" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3249893083</v>
+        <v>#N/A Requesting Data...3297935698</v>
         <stp/>
         <stp>BDP|6562757116171369998</stp>
         <tr r="G12" s="8"/>
@@ -11091,19 +11091,19 @@
         <tr r="H4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2575280743</v>
+        <v>#N/A Requesting Data...2346502436</v>
         <stp/>
         <stp>BDP|5385463482081488053</stp>
         <tr r="I18" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2436569676</v>
+        <v>#N/A Requesting Data...2401012092</v>
         <stp/>
         <stp>BDP|8924865682151317020</stp>
         <tr r="J6" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2331164216</v>
+        <v>#N/A Requesting Data...3713309157</v>
         <stp/>
         <stp>BDP|1128734333378375410</stp>
         <tr r="G3" s="8"/>
@@ -11115,13 +11115,13 @@
         <tr r="G3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3416535087</v>
+        <v>#N/A Requesting Data...2586169146</v>
         <stp/>
         <stp>BDP|2611812618674612501</stp>
         <tr r="G21" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2634049655</v>
+        <v>#N/A Requesting Data...3402529994</v>
         <stp/>
         <stp>BDP|2308569003878595504</stp>
         <tr r="G2" s="8"/>
@@ -11133,73 +11133,73 @@
         <tr r="D2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4136610179</v>
+        <v>#N/A Requesting Data...1474366734</v>
         <stp/>
         <stp>BDP|3941992908775130404</stp>
         <tr r="J25" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1541766839</v>
+        <v>#N/A Requesting Data...2678743474</v>
         <stp/>
         <stp>BDP|3291903457245179182</stp>
         <tr r="J2" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2378725349</v>
+        <v>#N/A Requesting Data...2710859668</v>
         <stp/>
         <stp>BDP|6425057492770532462</stp>
         <tr r="I19" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3230467907</v>
+        <v>#N/A Requesting Data...1748024618</v>
         <stp/>
         <stp>BDP|6161838031176096058</stp>
         <tr r="I16" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3111334343</v>
+        <v>#N/A Requesting Data...3464233160</v>
         <stp/>
         <stp>BDP|3077447014329027453</stp>
         <tr r="J28" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2454924216</v>
+        <v>#N/A Requesting Data...3544070769</v>
         <stp/>
         <stp>BDP|8206849867709686421</stp>
         <tr r="G18" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4156101097</v>
+        <v>#N/A Requesting Data...2751908278</v>
         <stp/>
         <stp>BDP|7345995582480211286</stp>
         <tr r="G31" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3882183488</v>
+        <v>#N/A Requesting Data...4073921947</v>
         <stp/>
         <stp>BDP|4413576672810581209</stp>
         <tr r="I27" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2525867544</v>
+        <v>#N/A Requesting Data...1979216157</v>
         <stp/>
         <stp>BDP|6157782036642572518</stp>
         <tr r="J29" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4005505651</v>
+        <v>#N/A Requesting Data...3323720803</v>
         <stp/>
         <stp>BDP|6220219131444631675</stp>
         <tr r="G8" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3693327728</v>
+        <v>#N/A Requesting Data...1353849509</v>
         <stp/>
         <stp>BDP|3360950956148167270</stp>
         <tr r="G14" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4087495298</v>
+        <v>#N/A Requesting Data...1524395331</v>
         <stp/>
         <stp>BDP|5395051681221643947</stp>
         <tr r="I8" s="8"/>
@@ -11211,19 +11211,19 @@
         <tr r="G2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4207584684</v>
+        <v>#N/A Requesting Data...3886977279</v>
         <stp/>
         <stp>BDP|1670037968322179357</stp>
         <tr r="J26" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1642714898</v>
+        <v>#N/A Requesting Data...4207242738</v>
         <stp/>
         <stp>BDP|2839133712490378457</stp>
         <tr r="G6" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4169927906</v>
+        <v>#N/A Requesting Data...3505611653</v>
         <stp/>
         <stp>BDP|2838905987092631755</stp>
         <tr r="J21" s="8"/>
@@ -11235,7 +11235,7 @@
         <tr r="J2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3200794649</v>
+        <v>#N/A Requesting Data...2589755410</v>
         <stp/>
         <stp>BDP|5204454222122845799</stp>
         <tr r="I26" s="8"/>
@@ -11247,7 +11247,7 @@
         <tr r="A4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4212856246</v>
+        <v>#N/A Requesting Data...2878703249</v>
         <stp/>
         <stp>BDP|1152944294807719185</stp>
         <tr r="J13" s="8"/>
@@ -11259,7 +11259,7 @@
         <tr r="D3" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2323991597</v>
+        <v>#N/A Requesting Data...1337094296</v>
         <stp/>
         <stp>BDP|4825389648462539616</stp>
         <tr r="J8" s="8"/>
@@ -11271,55 +11271,55 @@
         <tr r="H2" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3499915600</v>
+        <v>#N/A Requesting Data...3196334180</v>
         <stp/>
         <stp>BDP|1795501377024886040</stp>
         <tr r="J16" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3388109196</v>
+        <v>#N/A Requesting Data...3238912428</v>
         <stp/>
         <stp>BDP|3608796951860408113</stp>
         <tr r="J24" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4015128658</v>
+        <v>#N/A Requesting Data...2484331850</v>
         <stp/>
         <stp>BDP|8919662274839738033</stp>
         <tr r="G27" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2628537538</v>
+        <v>#N/A Requesting Data...3852358507</v>
         <stp/>
         <stp>BDP|9062222090615766748</stp>
         <tr r="J22" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2056066466</v>
         <stp/>
         <stp>BDP|5625078916216162272</stp>
         <tr r="E4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3664184380</v>
+        <v>#N/A Requesting Data...1267772640</v>
         <stp/>
         <stp>BDP|9521515156931029993</stp>
         <tr r="G17" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3859632648</v>
+        <v>#N/A Requesting Data...3060576623</v>
         <stp/>
         <stp>BDP|6702766465910193697</stp>
         <tr r="G29" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1888985192</v>
+        <v>#N/A Requesting Data...2763423050</v>
         <stp/>
         <stp>BDP|7538057988699068746</stp>
         <tr r="J7" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2050349808</v>
+        <v>#N/A Requesting Data...1460913611</v>
         <stp/>
         <stp>BDP|1727262359370970750</stp>
         <tr r="G10" s="8"/>
@@ -11331,43 +11331,43 @@
         <tr r="D4" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1828925180</v>
+        <v>#N/A Requesting Data...4017339591</v>
         <stp/>
         <stp>BDP|7828186231867221074</stp>
         <tr r="G23" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2860135028</v>
+        <v>#N/A Requesting Data...1458243648</v>
         <stp/>
         <stp>BDP|7484706271381875481</stp>
         <tr r="I3" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2541095420</v>
+        <v>#N/A Requesting Data...3806720009</v>
         <stp/>
         <stp>BDP|727843243199169391</stp>
         <tr r="J19" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3636377100</v>
+        <v>#N/A Requesting Data...3659669187</v>
         <stp/>
         <stp>BDP|754580253137657183</stp>
         <tr r="J27" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3391067521</v>
+        <v>#N/A Requesting Data...2683384767</v>
         <stp/>
         <stp>BDP|137773346813342129</stp>
         <tr r="I9" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2072393594</v>
+        <v>#N/A Requesting Data...3485303831</v>
         <stp/>
         <stp>BDP|765188916491749212</stp>
         <tr r="G16" s="8"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2123225156</v>
+        <v>#N/A Requesting Data...1120895898</v>
         <stp/>
         <stp>BDP|910555133742506972</stp>
         <tr r="J31" s="8"/>
@@ -11648,7 +11648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -27593,7 +27593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376432B9-E8BD-45BF-926F-BDAF93607778}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
